--- a/nr-add-fr-deps/ig/all-profiles.xlsx
+++ b/nr-add-fr-deps/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T15:24:22+00:00</t>
+    <t>2024-09-17T15:24:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -559,8 +559,7 @@
 </t>
   </si>
   <si>
-    <t>(recommandé) Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | 
-survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
+    <t>(recommandé) Grande catégorie qui peut servir à identifier les différentes sources d'observations en télésurveillance: vital-sign : constantes physiologiques, signes vitaux, mesures | survey : réponse à questionnaire ou score |  activity : activité physique (#pas, #longueurs de piscine, ...)</t>
   </si>
   <si>
     <t>A code that classifies the general type of observation being made.</t>

--- a/nr-add-fr-deps/ig/all-profiles.xlsx
+++ b/nr-add-fr-deps/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-17T15:24:35+00:00</t>
+    <t>2024-10-10T08:35:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1071,7 +1071,7 @@
     <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Observation.derivedFrom</t>

--- a/nr-add-fr-deps/ig/all-profiles.xlsx
+++ b/nr-add-fr-deps/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T08:35:45+00:00</t>
+    <t>2024-10-10T08:36:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-add-fr-deps/ig/all-profiles.xlsx
+++ b/nr-add-fr-deps/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="353">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-ballot</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T08:36:22+00:00</t>
+    <t>2024-10-10T08:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -311,10 +311,6 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
@@ -432,16 +428,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -498,14 +484,7 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Observation.partOf</t>
@@ -734,8 +713,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>ele-1
-obs-7</t>
+    <t xml:space="preserve">obs-7
+</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -763,8 +742,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t>ele-1
-obs-6</t>
+    <t xml:space="preserve">obs-6
+</t>
   </si>
   <si>
     <t>Observation.interpretation</t>
@@ -961,15 +940,8 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1
-obs-3</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
+    <t xml:space="preserve">obs-3
+</t>
   </si>
   <si>
     <t>Observation.referenceRange.high</t>
@@ -1036,16 +1008,9 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
-  </si>
-  <si>
     <t>Some analytes vary greatly over age.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
-  </si>
-  <si>
     <t>Observation.referenceRange.text</t>
   </si>
   <si>
@@ -1053,9 +1018,6 @@
   </si>
   <si>
     <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
-  </si>
-  <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>Observation.hasMember</t>
@@ -1511,7 +1473,7 @@
     <col min="27" max="27" width="60.2890625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="17.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1939,10 +1901,10 @@
         <v>85</v>
       </c>
       <c r="AJ4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK4" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK4" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="5">
@@ -1950,10 +1912,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1976,16 +1938,16 @@
         <v>86</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="N5" t="s" s="2">
+      <c r="O5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="O5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
@@ -2035,7 +1997,7 @@
         <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
@@ -2044,10 +2006,10 @@
         <v>85</v>
       </c>
       <c r="AJ5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK5" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="6">
@@ -2055,10 +2017,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
@@ -2081,16 +2043,16 @@
         <v>78</v>
       </c>
       <c r="L6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="O6" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="O6" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
@@ -2116,31 +2078,31 @@
         <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="Z6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="AA6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
@@ -2149,10 +2111,10 @@
         <v>85</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="7">
@@ -2160,14 +2122,14 @@
         <v>3</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" t="s" s="2">
@@ -2186,16 +2148,16 @@
         <v>78</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="N7" t="s" s="2">
+      <c r="O7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
@@ -2245,7 +2207,7 @@
         <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>76</v>
@@ -2254,10 +2216,10 @@
         <v>85</v>
       </c>
       <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="8">
@@ -2265,14 +2227,14 @@
         <v>3</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" t="s" s="2">
@@ -2291,16 +2253,16 @@
         <v>78</v>
       </c>
       <c r="L8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="N8" t="s" s="2">
+      <c r="O8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="O8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
@@ -2350,7 +2312,7 @@
         <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>76</v>
@@ -2370,14 +2332,14 @@
         <v>3</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s" s="2">
@@ -2396,16 +2358,16 @@
         <v>78</v>
       </c>
       <c r="L9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N9" t="s" s="2">
+      <c r="O9" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="O9" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
@@ -2443,19 +2405,19 @@
         <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>76</v>
@@ -2464,10 +2426,10 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -2475,14 +2437,14 @@
         <v>3</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" t="s" s="2">
@@ -2501,19 +2463,19 @@
         <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q10" t="s" s="2">
         <v>78</v>
@@ -2550,19 +2512,19 @@
         <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>76</v>
@@ -2571,10 +2533,10 @@
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -2582,10 +2544,10 @@
         <v>3</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2608,17 +2570,17 @@
         <v>86</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="Q11" t="s" s="2">
         <v>78</v>
@@ -2667,7 +2629,7 @@
         <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
@@ -2676,10 +2638,10 @@
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="12">
@@ -2687,14 +2649,14 @@
         <v>3</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" t="s" s="2">
@@ -2713,19 +2675,17 @@
         <v>86</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="Q12" t="s" s="2">
         <v>78</v>
@@ -2774,7 +2734,7 @@
         <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>76</v>
@@ -2783,10 +2743,10 @@
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -2794,14 +2754,14 @@
         <v>3</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" t="s" s="2">
@@ -2820,16 +2780,16 @@
         <v>86</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
@@ -2879,7 +2839,7 @@
         <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
@@ -2888,10 +2848,10 @@
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="14">
@@ -2899,10 +2859,10 @@
         <v>3</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -2925,19 +2885,19 @@
         <v>86</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="P14" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q14" t="s" s="2">
         <v>78</v>
@@ -2962,13 +2922,13 @@
         <v>78</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="AB14" t="s" s="2">
         <v>78</v>
@@ -2986,7 +2946,7 @@
         <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>85</v>
@@ -2995,10 +2955,10 @@
         <v>85</v>
       </c>
       <c r="AJ14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="15">
@@ -3006,10 +2966,10 @@
         <v>3</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3032,19 +2992,19 @@
         <v>78</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="P15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="Q15" t="s" s="2">
         <v>78</v>
@@ -3069,11 +3029,11 @@
         <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="Z15" s="2"/>
       <c r="AA15" t="s" s="2">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AB15" t="s" s="2">
         <v>78</v>
@@ -3091,7 +3051,7 @@
         <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
@@ -3100,10 +3060,10 @@
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -3111,14 +3071,14 @@
         <v>3</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" t="s" s="2">
@@ -3137,19 +3097,19 @@
         <v>86</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q16" t="s" s="2">
         <v>78</v>
@@ -3174,13 +3134,13 @@
         <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AB16" t="s" s="2">
         <v>78</v>
@@ -3198,7 +3158,7 @@
         <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>85</v>
@@ -3207,10 +3167,10 @@
         <v>85</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="17">
@@ -3218,10 +3178,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3244,19 +3204,19 @@
         <v>86</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="Q17" t="s" s="2">
         <v>78</v>
@@ -3305,7 +3265,7 @@
         <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
@@ -3314,10 +3274,10 @@
         <v>85</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="18">
@@ -3325,10 +3285,10 @@
         <v>3</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3351,16 +3311,16 @@
         <v>86</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
@@ -3410,7 +3370,7 @@
         <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
@@ -3419,10 +3379,10 @@
         <v>77</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="19">
@@ -3430,14 +3390,14 @@
         <v>3</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s" s="2">
@@ -3456,19 +3416,19 @@
         <v>86</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q19" t="s" s="2">
         <v>78</v>
@@ -3517,7 +3477,7 @@
         <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
@@ -3526,10 +3486,10 @@
         <v>85</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="20">
@@ -3537,14 +3497,14 @@
         <v>3</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" t="s" s="2">
@@ -3563,19 +3523,19 @@
         <v>86</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>78</v>
@@ -3624,7 +3584,7 @@
         <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>76</v>
@@ -3633,10 +3593,10 @@
         <v>85</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="21">
@@ -3644,10 +3604,10 @@
         <v>3</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3670,16 +3630,16 @@
         <v>86</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
@@ -3729,7 +3689,7 @@
         <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
@@ -3738,10 +3698,10 @@
         <v>85</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -3749,10 +3709,10 @@
         <v>3</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3775,19 +3735,17 @@
         <v>86</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>154</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="Q22" t="s" s="2">
         <v>78</v>
@@ -3836,7 +3794,7 @@
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>76</v>
@@ -3845,10 +3803,10 @@
         <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="23">
@@ -3856,10 +3814,10 @@
         <v>3</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3882,19 +3840,19 @@
         <v>86</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P23" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q23" t="s" s="2">
         <v>78</v>
@@ -3943,7 +3901,7 @@
         <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>76</v>
@@ -3952,10 +3910,10 @@
         <v>85</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
@@ -3963,10 +3921,10 @@
         <v>3</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -3989,19 +3947,19 @@
         <v>78</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P24" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q24" t="s" s="2">
         <v>78</v>
@@ -4026,13 +3984,13 @@
         <v>78</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AB24" t="s" s="2">
         <v>78</v>
@@ -4050,7 +4008,7 @@
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
@@ -4059,10 +4017,10 @@
         <v>85</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -4070,14 +4028,14 @@
         <v>3</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" t="s" s="2">
@@ -4096,19 +4054,19 @@
         <v>78</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q25" t="s" s="2">
         <v>78</v>
@@ -4133,13 +4091,13 @@
         <v>78</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AB25" t="s" s="2">
         <v>78</v>
@@ -4157,7 +4115,7 @@
         <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
@@ -4166,10 +4124,10 @@
         <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -4177,10 +4135,10 @@
         <v>3</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4203,19 +4161,19 @@
         <v>78</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="P26" t="s" s="2">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="Q26" t="s" s="2">
         <v>78</v>
@@ -4264,7 +4222,7 @@
         <v>78</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
@@ -4273,10 +4231,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="27">
@@ -4284,10 +4242,10 @@
         <v>3</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4310,16 +4268,16 @@
         <v>78</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
@@ -4345,13 +4303,13 @@
         <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AB27" t="s" s="2">
         <v>78</v>
@@ -4369,7 +4327,7 @@
         <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
@@ -4378,10 +4336,10 @@
         <v>85</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -4389,10 +4347,10 @@
         <v>3</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4415,19 +4373,19 @@
         <v>78</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="Q28" t="s" s="2">
         <v>78</v>
@@ -4452,13 +4410,13 @@
         <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AB28" t="s" s="2">
         <v>78</v>
@@ -4476,7 +4434,7 @@
         <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -4485,10 +4443,10 @@
         <v>85</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="29">
@@ -4496,10 +4454,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4522,16 +4480,16 @@
         <v>78</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
@@ -4581,7 +4539,7 @@
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>76</v>
@@ -4590,10 +4548,10 @@
         <v>85</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="30">
@@ -4601,10 +4559,10 @@
         <v>3</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4627,16 +4585,16 @@
         <v>78</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
@@ -4686,7 +4644,7 @@
         <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>76</v>
@@ -4695,10 +4653,10 @@
         <v>85</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="31">
@@ -4706,10 +4664,10 @@
         <v>3</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -4732,19 +4690,19 @@
         <v>78</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P31" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q31" t="s" s="2">
         <v>78</v>
@@ -4793,7 +4751,7 @@
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
@@ -4802,10 +4760,10 @@
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32">
@@ -4813,10 +4771,10 @@
         <v>3</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4839,13 +4797,13 @@
         <v>78</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -4896,7 +4854,7 @@
         <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
@@ -4916,14 +4874,14 @@
         <v>3</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" t="s" s="2">
@@ -4942,16 +4900,16 @@
         <v>78</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
@@ -4989,19 +4947,19 @@
         <v>78</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>76</v>
@@ -5010,10 +4968,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
@@ -5021,14 +4979,14 @@
         <v>3</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F34" s="2"/>
       <c r="G34" t="s" s="2">
@@ -5047,19 +5005,19 @@
         <v>86</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P34" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q34" t="s" s="2">
         <v>78</v>
@@ -5108,7 +5066,7 @@
         <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
@@ -5117,10 +5075,10 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35">
@@ -5128,10 +5086,10 @@
         <v>3</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5154,17 +5112,15 @@
         <v>78</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
         <v>78</v>
@@ -5213,7 +5169,7 @@
         <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>76</v>
@@ -5222,10 +5178,10 @@
         <v>85</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36">
@@ -5233,10 +5189,10 @@
         <v>3</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5259,17 +5215,15 @@
         <v>78</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="M36" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>299</v>
-      </c>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
         <v>78</v>
@@ -5318,7 +5272,7 @@
         <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>76</v>
@@ -5327,10 +5281,10 @@
         <v>85</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>301</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37">
@@ -5338,10 +5292,10 @@
         <v>3</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5364,19 +5318,19 @@
         <v>78</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="P37" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="Q37" t="s" s="2">
         <v>78</v>
@@ -5401,13 +5355,13 @@
         <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="AB37" t="s" s="2">
         <v>78</v>
@@ -5425,7 +5379,7 @@
         <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>76</v>
@@ -5434,10 +5388,10 @@
         <v>85</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -5445,10 +5399,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5471,19 +5425,19 @@
         <v>78</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="P38" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="Q38" t="s" s="2">
         <v>78</v>
@@ -5508,13 +5462,13 @@
         <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>78</v>
@@ -5532,7 +5486,7 @@
         <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
@@ -5541,10 +5495,10 @@
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK38" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="39">
@@ -5552,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5578,19 +5532,17 @@
         <v>78</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Q39" t="s" s="2">
         <v>78</v>
@@ -5639,7 +5591,7 @@
         <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>76</v>
@@ -5648,10 +5600,10 @@
         <v>85</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="40">
@@ -5659,10 +5611,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5685,17 +5637,15 @@
         <v>78</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
         <v>78</v>
@@ -5744,7 +5694,7 @@
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -5753,10 +5703,10 @@
         <v>85</v>
       </c>
       <c r="AJ40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -5764,10 +5714,10 @@
         <v>3</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5790,16 +5740,16 @@
         <v>86</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
@@ -5849,7 +5799,7 @@
         <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>76</v>
@@ -5858,10 +5808,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="42">
@@ -5869,10 +5819,10 @@
         <v>3</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -5895,16 +5845,16 @@
         <v>86</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
@@ -5954,7 +5904,7 @@
         <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>76</v>
@@ -5963,10 +5913,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK42" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>156</v>
       </c>
     </row>
     <row r="43">
@@ -5974,10 +5924,10 @@
         <v>3</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6000,19 +5950,19 @@
         <v>86</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="P43" t="s" s="2">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q43" t="s" s="2">
         <v>78</v>
@@ -6061,7 +6011,7 @@
         <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
@@ -6070,10 +6020,10 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="44">
@@ -6081,10 +6031,10 @@
         <v>3</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6107,13 +6057,13 @@
         <v>78</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -6164,7 +6114,7 @@
         <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
@@ -6184,14 +6134,14 @@
         <v>3</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" t="s" s="2">
@@ -6210,16 +6160,16 @@
         <v>78</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="M45" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
@@ -6257,19 +6207,19 @@
         <v>78</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>136</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>76</v>
@@ -6278,10 +6228,10 @@
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46">
@@ -6289,14 +6239,14 @@
         <v>3</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" t="s" s="2">
@@ -6315,19 +6265,19 @@
         <v>86</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>78</v>
@@ -6376,7 +6326,7 @@
         <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -6385,10 +6335,10 @@
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47">
@@ -6396,10 +6346,10 @@
         <v>3</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6422,19 +6372,19 @@
         <v>86</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="Q47" t="s" s="2">
         <v>78</v>
@@ -6459,13 +6409,13 @@
         <v>78</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="AB47" t="s" s="2">
         <v>78</v>
@@ -6483,7 +6433,7 @@
         <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>85</v>
@@ -6492,10 +6442,10 @@
         <v>85</v>
       </c>
       <c r="AJ47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="48">
@@ -6503,10 +6453,10 @@
         <v>3</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6529,19 +6479,19 @@
         <v>86</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P48" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q48" t="s" s="2">
         <v>78</v>
@@ -6590,7 +6540,7 @@
         <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>76</v>
@@ -6599,10 +6549,10 @@
         <v>85</v>
       </c>
       <c r="AJ48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK48" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -6610,10 +6560,10 @@
         <v>3</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6636,19 +6586,19 @@
         <v>78</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="P49" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Q49" t="s" s="2">
         <v>78</v>
@@ -6673,13 +6623,13 @@
         <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="AB49" t="s" s="2">
         <v>78</v>
@@ -6697,7 +6647,7 @@
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
@@ -6706,10 +6656,10 @@
         <v>85</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50">
@@ -6717,14 +6667,14 @@
         <v>3</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" t="s" s="2">
@@ -6743,19 +6693,19 @@
         <v>78</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P50" t="s" s="2">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="Q50" t="s" s="2">
         <v>78</v>
@@ -6780,13 +6730,13 @@
         <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="AB50" t="s" s="2">
         <v>78</v>
@@ -6804,7 +6754,7 @@
         <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
@@ -6813,10 +6763,10 @@
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>97</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="51">
@@ -6824,10 +6774,10 @@
         <v>3</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6853,16 +6803,16 @@
         <v>79</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P51" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q51" t="s" s="2">
         <v>78</v>
@@ -6911,7 +6861,7 @@
         <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
@@ -6923,7 +6873,7 @@
         <v>78</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
